--- a/results/datasetUniform_polytree5.xlsx
+++ b/results/datasetUniform_polytree5.xlsx
@@ -466,13 +466,13 @@
         <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6870000000000002</v>
+        <v>0.7140000000000002</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3129999999999998</v>
+        <v>0.2859999999999998</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04686331748962402</v>
+        <v>0.05087041854858398</v>
       </c>
     </row>
     <row r="3">
@@ -488,13 +488,13 @@
         <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6960000000000002</v>
+        <v>0.7180000000000002</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3039999999999998</v>
+        <v>0.2819999999999998</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0624849796295166</v>
+        <v>0.06248712539672852</v>
       </c>
     </row>
     <row r="4">
@@ -510,13 +510,13 @@
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7410000000000002</v>
+        <v>0.7210000000000002</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2589999999999998</v>
+        <v>0.2789999999999998</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0625145435333252</v>
+        <v>0.05336833000183105</v>
       </c>
     </row>
     <row r="5">
@@ -532,13 +532,13 @@
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7190000000000002</v>
+        <v>0.7180000000000002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2809999999999998</v>
+        <v>0.2819999999999998</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04683446884155273</v>
+        <v>0.05202388763427734</v>
       </c>
     </row>
     <row r="6">
@@ -554,13 +554,13 @@
         <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7210000000000002</v>
+        <v>0.6780000000000002</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2789999999999998</v>
+        <v>0.3219999999999998</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09372949600219727</v>
+        <v>0.04799056053161621</v>
       </c>
     </row>
     <row r="7">
@@ -576,13 +576,13 @@
         <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7310000000000002</v>
+        <v>0.7180000000000002</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2689999999999998</v>
+        <v>0.2819999999999998</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0906682014465332</v>
+        <v>0.04686379432678223</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7570000000000002</v>
+        <v>0.7100000000000002</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2429999999999998</v>
+        <v>0.2899999999999998</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05564379692077637</v>
+        <v>0.05346012115478516</v>
       </c>
     </row>
     <row r="9">
@@ -620,13 +620,13 @@
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7090000000000002</v>
+        <v>0.7390000000000002</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2909999999999998</v>
+        <v>0.2609999999999998</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04686975479125977</v>
+        <v>0.06248307228088379</v>
       </c>
     </row>
     <row r="10">
@@ -642,13 +642,13 @@
         <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7140000000000002</v>
+        <v>0.7040000000000002</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2859999999999998</v>
+        <v>0.2959999999999998</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0780644416809082</v>
+        <v>0.05341291427612305</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7280000000000002</v>
+        <v>0.6860000000000002</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2719999999999998</v>
+        <v>0.3139999999999998</v>
       </c>
       <c r="F11" t="n">
         <v>0.04686379432678223</v>
@@ -686,13 +686,13 @@
         <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7060000000000002</v>
+        <v>0.7320000000000002</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2939999999999998</v>
+        <v>0.2679999999999998</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06252789497375488</v>
+        <v>0.05336809158325195</v>
       </c>
     </row>
     <row r="13">
@@ -708,13 +708,13 @@
         <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7100000000000002</v>
+        <v>0.7080000000000002</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2899999999999998</v>
+        <v>0.2919999999999998</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0780642032623291</v>
+        <v>0.04686379432678223</v>
       </c>
     </row>
     <row r="14">
@@ -730,13 +730,13 @@
         <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7340000000000002</v>
+        <v>0.6950000000000002</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2659999999999998</v>
+        <v>0.3049999999999998</v>
       </c>
       <c r="F14" t="n">
-        <v>0.09354138374328613</v>
+        <v>0.05336809158325195</v>
       </c>
     </row>
     <row r="15">
@@ -752,13 +752,13 @@
         <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7200000000000002</v>
+        <v>0.7230000000000002</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2799999999999998</v>
+        <v>0.2769999999999998</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06476664543151855</v>
+        <v>0.04686379432678223</v>
       </c>
     </row>
     <row r="16">
@@ -774,13 +774,13 @@
         <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7130000000000002</v>
+        <v>0.7310000000000002</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2869999999999998</v>
+        <v>0.2689999999999998</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06748867034912109</v>
+        <v>0.05336833000183105</v>
       </c>
     </row>
     <row r="17">
@@ -796,13 +796,13 @@
         <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7370000000000002</v>
+        <v>0.6960000000000002</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2629999999999998</v>
+        <v>0.3039999999999998</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06252050399780273</v>
+        <v>0.06898880004882812</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         <v>25</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7240000000000002</v>
+        <v>0.7340000000000002</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2759999999999998</v>
+        <v>0.2659999999999998</v>
       </c>
       <c r="F18" t="n">
-        <v>0.07021951675415039</v>
+        <v>0.04690432548522949</v>
       </c>
     </row>
     <row r="19">
@@ -840,13 +840,13 @@
         <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7230000000000002</v>
+        <v>0.7240000000000002</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2769999999999998</v>
+        <v>0.2759999999999998</v>
       </c>
       <c r="F19" t="n">
-        <v>0.06246185302734375</v>
+        <v>0.05566048622131348</v>
       </c>
     </row>
     <row r="20">
@@ -862,13 +862,13 @@
         <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7060000000000002</v>
+        <v>0.6930000000000002</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2939999999999998</v>
+        <v>0.3069999999999998</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04683756828308105</v>
+        <v>0.05052876472473145</v>
       </c>
     </row>
     <row r="21">
@@ -884,13 +884,13 @@
         <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7230000000000002</v>
+        <v>0.7150000000000002</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2769999999999998</v>
+        <v>0.2849999999999998</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06248712539672852</v>
+        <v>0.05057144165039062</v>
       </c>
     </row>
     <row r="22">
@@ -906,13 +906,13 @@
         <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7290000000000002</v>
+        <v>0.7270000000000002</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2709999999999998</v>
+        <v>0.2729999999999998</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06248736381530762</v>
+        <v>0.05067324638366699</v>
       </c>
     </row>
     <row r="23">
@@ -928,13 +928,13 @@
         <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7070000000000002</v>
+        <v>0.6960000000000002</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2929999999999998</v>
+        <v>0.3039999999999998</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06248283386230469</v>
+        <v>0.05934238433837891</v>
       </c>
     </row>
     <row r="24">
@@ -950,13 +950,13 @@
         <v>25</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7280000000000002</v>
+        <v>0.7200000000000002</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2719999999999998</v>
+        <v>0.2799999999999998</v>
       </c>
       <c r="F24" t="n">
-        <v>0.06252408027648926</v>
+        <v>0.05125880241394043</v>
       </c>
     </row>
     <row r="25">
@@ -972,13 +972,13 @@
         <v>25</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7280000000000002</v>
+        <v>0.7150000000000002</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2719999999999998</v>
+        <v>0.2849999999999998</v>
       </c>
       <c r="F25" t="n">
-        <v>0.04687023162841797</v>
+        <v>0.05330038070678711</v>
       </c>
     </row>
     <row r="26">
@@ -994,13 +994,13 @@
         <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7010000000000002</v>
+        <v>0.6930000000000002</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2989999999999998</v>
+        <v>0.3069999999999998</v>
       </c>
       <c r="F26" t="n">
-        <v>0.06244301795959473</v>
+        <v>0.0513002872467041</v>
       </c>
     </row>
     <row r="27">
@@ -1016,13 +1016,13 @@
         <v>25</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6823541731429225</v>
+        <v>0.7073759700213533</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3176458268570775</v>
+        <v>0.2926240299786467</v>
       </c>
       <c r="F27" t="n">
-        <v>0.06251096725463867</v>
+        <v>0.05025815963745117</v>
       </c>
     </row>
     <row r="28">
@@ -1038,13 +1038,13 @@
         <v>25</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6898282958893805</v>
+        <v>0.7189008399432341</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3101717041106195</v>
+        <v>0.2810991600567659</v>
       </c>
       <c r="F28" t="n">
-        <v>0.06245732307434082</v>
+        <v>0.05050110816955566</v>
       </c>
     </row>
     <row r="29">
@@ -1060,13 +1060,13 @@
         <v>25</v>
       </c>
       <c r="D29" t="n">
-        <v>0.681707875295569</v>
+        <v>0.6855116733400112</v>
       </c>
       <c r="E29" t="n">
-        <v>0.318292124704431</v>
+        <v>0.3144883266599889</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06252503395080566</v>
+        <v>0.0588531494140625</v>
       </c>
     </row>
     <row r="30">
@@ -1082,13 +1082,13 @@
         <v>25</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6839889367089281</v>
+        <v>0.6789302619489584</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3160110632910719</v>
+        <v>0.3210697380510414</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06244373321533203</v>
+        <v>0.05418610572814941</v>
       </c>
     </row>
     <row r="31">
@@ -1104,13 +1104,13 @@
         <v>25</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6843263432276564</v>
+        <v>0.686188130787769</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3156736567723437</v>
+        <v>0.3138118692122311</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0624847412109375</v>
+        <v>0.0492405891418457</v>
       </c>
     </row>
     <row r="32">
@@ -1126,13 +1126,13 @@
         <v>25</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6718227013337701</v>
+        <v>0.6835356162296568</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3281772986662299</v>
+        <v>0.3164643837703433</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04686570167541504</v>
+        <v>0.06002688407897949</v>
       </c>
     </row>
     <row r="33">
@@ -1148,13 +1148,13 @@
         <v>25</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7129513557327237</v>
+        <v>0.7088070254804987</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2870486442672763</v>
+        <v>0.2911929745195013</v>
       </c>
       <c r="F33" t="n">
-        <v>0.07815146446228027</v>
+        <v>0.04934310913085938</v>
       </c>
     </row>
     <row r="34">
@@ -1170,13 +1170,13 @@
         <v>25</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7208425683922092</v>
+        <v>0.6971430672092844</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2791574316077908</v>
+        <v>0.3028569327907156</v>
       </c>
       <c r="F34" t="n">
-        <v>0.06244397163391113</v>
+        <v>0.0518798828125</v>
       </c>
     </row>
     <row r="35">
@@ -1192,13 +1192,13 @@
         <v>25</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6817964494865055</v>
+        <v>0.6788939862938005</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3182035505134944</v>
+        <v>0.3211060137061995</v>
       </c>
       <c r="F35" t="n">
-        <v>0.06248307228088379</v>
+        <v>0.05031609535217285</v>
       </c>
     </row>
     <row r="36">
@@ -1214,13 +1214,13 @@
         <v>25</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6779460315655086</v>
+        <v>0.7004385205551142</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3220539684344915</v>
+        <v>0.2995614794448857</v>
       </c>
       <c r="F36" t="n">
-        <v>0.04686188697814941</v>
+        <v>0.06012916564941406</v>
       </c>
     </row>
     <row r="37">
@@ -1236,13 +1236,13 @@
         <v>25</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6948287265561938</v>
+        <v>0.7130671490393391</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3051712734438062</v>
+        <v>0.2869328509606609</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06248879432678223</v>
+        <v>0.05185413360595703</v>
       </c>
     </row>
     <row r="38">
@@ -1258,13 +1258,13 @@
         <v>25</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7094254469742127</v>
+        <v>0.6888871814309235</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2905745530257873</v>
+        <v>0.3111128185690765</v>
       </c>
       <c r="F38" t="n">
-        <v>0.06251883506774902</v>
+        <v>0.05129075050354004</v>
       </c>
     </row>
     <row r="39">
@@ -1280,13 +1280,13 @@
         <v>25</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6899675587083358</v>
+        <v>0.6895610832906188</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3100324412916643</v>
+        <v>0.3104389167093812</v>
       </c>
       <c r="F39" t="n">
-        <v>0.06245613098144531</v>
+        <v>0.05069160461425781</v>
       </c>
     </row>
     <row r="40">
@@ -1302,13 +1302,13 @@
         <v>25</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7082021337662119</v>
+        <v>0.6705495800283811</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2917978662337881</v>
+        <v>0.3294504199716189</v>
       </c>
       <c r="F40" t="n">
-        <v>0.06248831748962402</v>
+        <v>0.05055093765258789</v>
       </c>
     </row>
     <row r="41">
@@ -1324,13 +1324,13 @@
         <v>25</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7007475040351507</v>
+        <v>0.6972577440608625</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2992524959648492</v>
+        <v>0.3027422559391375</v>
       </c>
       <c r="F41" t="n">
-        <v>0.06247735023498535</v>
+        <v>0.0484931468963623</v>
       </c>
     </row>
     <row r="42">
@@ -1346,13 +1346,13 @@
         <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6662997939610957</v>
+        <v>0.6879792860824244</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3337002060389043</v>
+        <v>0.3120207139175756</v>
       </c>
       <c r="F42" t="n">
-        <v>0.04686212539672852</v>
+        <v>0.06060361862182617</v>
       </c>
     </row>
     <row r="43">
@@ -1368,13 +1368,13 @@
         <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6934325092850652</v>
+        <v>0.7113637085645387</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3065674907149349</v>
+        <v>0.2886362914354614</v>
       </c>
       <c r="F43" t="n">
-        <v>0.08332729339599609</v>
+        <v>0.05257511138916016</v>
       </c>
     </row>
     <row r="44">
@@ -1390,13 +1390,13 @@
         <v>25</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6844636582500258</v>
+        <v>0.6815250108465545</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3155363417499742</v>
+        <v>0.3184749891534455</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06474018096923828</v>
+        <v>0.05115008354187012</v>
       </c>
     </row>
     <row r="45">
@@ -1412,13 +1412,13 @@
         <v>25</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6966878891293239</v>
+        <v>0.6973039792104218</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3033121108706762</v>
+        <v>0.3026960207895782</v>
       </c>
       <c r="F45" t="n">
-        <v>0.07294750213623047</v>
+        <v>0.05119943618774414</v>
       </c>
     </row>
     <row r="46">
@@ -1434,13 +1434,13 @@
         <v>25</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6890581694142511</v>
+        <v>0.7094014479877305</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3109418305857488</v>
+        <v>0.2905985520122696</v>
       </c>
       <c r="F46" t="n">
-        <v>0.06252741813659668</v>
+        <v>0.05097079277038574</v>
       </c>
     </row>
     <row r="47">
@@ -1456,13 +1456,13 @@
         <v>25</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6904817015989062</v>
+        <v>0.6974450043430455</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3095182984010937</v>
+        <v>0.3025549956569546</v>
       </c>
       <c r="F47" t="n">
-        <v>0.06244254112243652</v>
+        <v>0.05939126014709473</v>
       </c>
     </row>
     <row r="48">
@@ -1478,13 +1478,13 @@
         <v>25</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6858020052682012</v>
+        <v>0.7013959499426412</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3141979947317988</v>
+        <v>0.2986040500573587</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06248569488525391</v>
+        <v>0.05308938026428223</v>
       </c>
     </row>
     <row r="49">
@@ -1500,13 +1500,13 @@
         <v>25</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6790707677075565</v>
+        <v>0.7174331828807468</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3209292322924435</v>
+        <v>0.2825668171192533</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0624852180480957</v>
+        <v>0.04838085174560547</v>
       </c>
     </row>
     <row r="50">
@@ -1522,13 +1522,13 @@
         <v>25</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6894158469943207</v>
+        <v>0.7075492209372818</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3105841530056793</v>
+        <v>0.2924507790627182</v>
       </c>
       <c r="F50" t="n">
-        <v>0.08838438987731934</v>
+        <v>0.05300426483154297</v>
       </c>
     </row>
     <row r="51">
@@ -1544,13 +1544,13 @@
         <v>25</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6986637174633359</v>
+        <v>0.6848172374483676</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3013362825366641</v>
+        <v>0.3151827625516322</v>
       </c>
       <c r="F51" t="n">
-        <v>0.07524657249450684</v>
+        <v>0.04881906509399414</v>
       </c>
     </row>
     <row r="52">
@@ -1566,13 +1566,13 @@
         <v>25</v>
       </c>
       <c r="D52" t="n">
-        <v>0.724</v>
+        <v>0.734</v>
       </c>
       <c r="E52" t="n">
-        <v>0.276</v>
+        <v>0.266</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1290383338928223</v>
+        <v>0.108954906463623</v>
       </c>
     </row>
     <row r="53">
@@ -1588,13 +1588,13 @@
         <v>25</v>
       </c>
       <c r="D53" t="n">
-        <v>0.744</v>
+        <v>0.742</v>
       </c>
       <c r="E53" t="n">
-        <v>0.256</v>
+        <v>0.258</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1162352561950684</v>
+        <v>0.09444618225097656</v>
       </c>
     </row>
     <row r="54">
@@ -1610,13 +1610,13 @@
         <v>25</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.753</v>
       </c>
       <c r="E54" t="n">
-        <v>0.313</v>
+        <v>0.247</v>
       </c>
       <c r="F54" t="n">
-        <v>0.143413782119751</v>
+        <v>0.1068248748779297</v>
       </c>
     </row>
     <row r="55">
@@ -1632,13 +1632,13 @@
         <v>25</v>
       </c>
       <c r="D55" t="n">
-        <v>0.671</v>
+        <v>0.725</v>
       </c>
       <c r="E55" t="n">
-        <v>0.329</v>
+        <v>0.275</v>
       </c>
       <c r="F55" t="n">
-        <v>0.132723331451416</v>
+        <v>0.09372949600219727</v>
       </c>
     </row>
     <row r="56">
@@ -1654,13 +1654,13 @@
         <v>25</v>
       </c>
       <c r="D56" t="n">
-        <v>0.757</v>
+        <v>0.743</v>
       </c>
       <c r="E56" t="n">
-        <v>0.243</v>
+        <v>0.257</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1136729717254639</v>
+        <v>0.0846104621887207</v>
       </c>
     </row>
     <row r="57">
@@ -1676,13 +1676,13 @@
         <v>25</v>
       </c>
       <c r="D57" t="n">
-        <v>0.744</v>
+        <v>0.737</v>
       </c>
       <c r="E57" t="n">
-        <v>0.256</v>
+        <v>0.263</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1311659812927246</v>
+        <v>0.1029558181762695</v>
       </c>
     </row>
     <row r="58">
@@ -1698,13 +1698,13 @@
         <v>25</v>
       </c>
       <c r="D58" t="n">
-        <v>0.715</v>
+        <v>0.679</v>
       </c>
       <c r="E58" t="n">
-        <v>0.285</v>
+        <v>0.321</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1308107376098633</v>
+        <v>0.09313225746154785</v>
       </c>
     </row>
     <row r="59">
@@ -1720,13 +1720,13 @@
         <v>25</v>
       </c>
       <c r="D59" t="n">
-        <v>0.773</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>0.227</v>
+        <v>0.309</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1228601932525635</v>
+        <v>0.09113764762878418</v>
       </c>
     </row>
     <row r="60">
@@ -1742,13 +1742,13 @@
         <v>25</v>
       </c>
       <c r="D60" t="n">
-        <v>0.723</v>
+        <v>0.716</v>
       </c>
       <c r="E60" t="n">
-        <v>0.277</v>
+        <v>0.284</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1179232597351074</v>
+        <v>0.121363639831543</v>
       </c>
     </row>
     <row r="61">
@@ -1764,13 +1764,13 @@
         <v>25</v>
       </c>
       <c r="D61" t="n">
-        <v>0.731</v>
+        <v>0.719</v>
       </c>
       <c r="E61" t="n">
-        <v>0.269</v>
+        <v>0.281</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1158478260040283</v>
+        <v>0.0910038948059082</v>
       </c>
     </row>
     <row r="62">
@@ -1786,13 +1786,13 @@
         <v>25</v>
       </c>
       <c r="D62" t="n">
-        <v>0.755</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>0.245</v>
+        <v>0.309</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1102280616760254</v>
+        <v>0.1010603904724121</v>
       </c>
     </row>
     <row r="63">
@@ -1808,13 +1808,13 @@
         <v>25</v>
       </c>
       <c r="D63" t="n">
-        <v>0.751</v>
+        <v>0.711</v>
       </c>
       <c r="E63" t="n">
-        <v>0.249</v>
+        <v>0.289</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1093745231628418</v>
+        <v>0.09095621109008789</v>
       </c>
     </row>
     <row r="64">
@@ -1830,13 +1830,13 @@
         <v>25</v>
       </c>
       <c r="D64" t="n">
-        <v>0.723</v>
+        <v>0.668</v>
       </c>
       <c r="E64" t="n">
-        <v>0.277</v>
+        <v>0.332</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1420087814331055</v>
+        <v>0.1010091304779053</v>
       </c>
     </row>
     <row r="65">
@@ -1852,13 +1852,13 @@
         <v>25</v>
       </c>
       <c r="D65" t="n">
-        <v>0.735</v>
+        <v>0.701</v>
       </c>
       <c r="E65" t="n">
-        <v>0.265</v>
+        <v>0.299</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1249759197235107</v>
+        <v>0.09143805503845215</v>
       </c>
     </row>
     <row r="66">
@@ -1874,13 +1874,13 @@
         <v>25</v>
       </c>
       <c r="D66" t="n">
-        <v>0.738</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>0.262</v>
+        <v>0.317</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1249926090240479</v>
+        <v>0.09097003936767578</v>
       </c>
     </row>
     <row r="67">
@@ -1896,13 +1896,13 @@
         <v>25</v>
       </c>
       <c r="D67" t="n">
-        <v>0.666</v>
+        <v>0.661</v>
       </c>
       <c r="E67" t="n">
-        <v>0.334</v>
+        <v>0.339</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09370303153991699</v>
+        <v>0.1007769107818604</v>
       </c>
     </row>
     <row r="68">
@@ -1918,13 +1918,13 @@
         <v>25</v>
       </c>
       <c r="D68" t="n">
-        <v>0.774</v>
+        <v>0.744</v>
       </c>
       <c r="E68" t="n">
-        <v>0.226</v>
+        <v>0.256</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09372711181640625</v>
+        <v>0.09116387367248535</v>
       </c>
     </row>
     <row r="69">
@@ -1940,13 +1940,13 @@
         <v>25</v>
       </c>
       <c r="D69" t="n">
-        <v>0.754</v>
+        <v>0.734</v>
       </c>
       <c r="E69" t="n">
-        <v>0.246</v>
+        <v>0.266</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1093487739562988</v>
+        <v>0.09995818138122559</v>
       </c>
     </row>
     <row r="70">
@@ -1962,13 +1962,13 @@
         <v>25</v>
       </c>
       <c r="D70" t="n">
-        <v>0.72</v>
+        <v>0.714</v>
       </c>
       <c r="E70" t="n">
-        <v>0.28</v>
+        <v>0.286</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1093506813049316</v>
+        <v>0.09427952766418457</v>
       </c>
     </row>
     <row r="71">
@@ -1984,13 +1984,13 @@
         <v>25</v>
       </c>
       <c r="D71" t="n">
-        <v>0.701</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>0.299</v>
+        <v>0.316</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0937657356262207</v>
+        <v>0.09104466438293457</v>
       </c>
     </row>
     <row r="72">
@@ -2006,13 +2006,13 @@
         <v>25</v>
       </c>
       <c r="D72" t="n">
-        <v>0.754</v>
+        <v>0.749</v>
       </c>
       <c r="E72" t="n">
-        <v>0.246</v>
+        <v>0.251</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0936887264251709</v>
+        <v>0.08885836601257324</v>
       </c>
     </row>
     <row r="73">
@@ -2028,13 +2028,13 @@
         <v>25</v>
       </c>
       <c r="D73" t="n">
-        <v>0.752</v>
+        <v>0.669</v>
       </c>
       <c r="E73" t="n">
-        <v>0.248</v>
+        <v>0.331</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1093482971191406</v>
+        <v>0.0930638313293457</v>
       </c>
     </row>
     <row r="74">
@@ -2050,13 +2050,13 @@
         <v>25</v>
       </c>
       <c r="D74" t="n">
-        <v>0.718</v>
+        <v>0.762</v>
       </c>
       <c r="E74" t="n">
-        <v>0.282</v>
+        <v>0.238</v>
       </c>
       <c r="F74" t="n">
-        <v>0.09372901916503906</v>
+        <v>0.09899401664733887</v>
       </c>
     </row>
     <row r="75">
@@ -2072,13 +2072,13 @@
         <v>25</v>
       </c>
       <c r="D75" t="n">
-        <v>0.694</v>
+        <v>0.731</v>
       </c>
       <c r="E75" t="n">
-        <v>0.306</v>
+        <v>0.269</v>
       </c>
       <c r="F75" t="n">
-        <v>0.109351634979248</v>
+        <v>0.1228878498077393</v>
       </c>
     </row>
     <row r="76">
@@ -2094,13 +2094,13 @@
         <v>25</v>
       </c>
       <c r="D76" t="n">
-        <v>0.738</v>
+        <v>0.673</v>
       </c>
       <c r="E76" t="n">
-        <v>0.262</v>
+        <v>0.327</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09372544288635254</v>
+        <v>0.08867430686950684</v>
       </c>
     </row>
     <row r="77">
@@ -2116,13 +2116,13 @@
         <v>25</v>
       </c>
       <c r="D77" t="n">
-        <v>0.717</v>
+        <v>0.72</v>
       </c>
       <c r="E77" t="n">
-        <v>0.283</v>
+        <v>0.28</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1093497276306152</v>
+        <v>0.1031692028045654</v>
       </c>
     </row>
     <row r="78">
@@ -2138,13 +2138,13 @@
         <v>25</v>
       </c>
       <c r="D78" t="n">
-        <v>0.657</v>
+        <v>0.699</v>
       </c>
       <c r="E78" t="n">
-        <v>0.343</v>
+        <v>0.301</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09372687339782715</v>
+        <v>0.0910499095916748</v>
       </c>
     </row>
     <row r="79">
@@ -2160,13 +2160,13 @@
         <v>25</v>
       </c>
       <c r="D79" t="n">
-        <v>0.726</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>0.274</v>
+        <v>0.318</v>
       </c>
       <c r="F79" t="n">
-        <v>0.09377145767211914</v>
+        <v>0.1008915901184082</v>
       </c>
     </row>
     <row r="80">
@@ -2182,13 +2182,13 @@
         <v>25</v>
       </c>
       <c r="D80" t="n">
-        <v>0.669</v>
+        <v>0.699</v>
       </c>
       <c r="E80" t="n">
-        <v>0.331</v>
+        <v>0.301</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09368515014648438</v>
+        <v>0.09103059768676758</v>
       </c>
     </row>
     <row r="81">
@@ -2204,13 +2204,13 @@
         <v>25</v>
       </c>
       <c r="D81" t="n">
-        <v>0.701</v>
+        <v>0.732</v>
       </c>
       <c r="E81" t="n">
-        <v>0.299</v>
+        <v>0.268</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09372758865356445</v>
+        <v>0.1093840599060059</v>
       </c>
     </row>
     <row r="82">
@@ -2226,13 +2226,13 @@
         <v>25</v>
       </c>
       <c r="D82" t="n">
-        <v>0.637</v>
+        <v>0.597</v>
       </c>
       <c r="E82" t="n">
-        <v>0.363</v>
+        <v>0.403</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1093478202819824</v>
+        <v>0.113222599029541</v>
       </c>
     </row>
     <row r="83">
@@ -2248,13 +2248,13 @@
         <v>25</v>
       </c>
       <c r="D83" t="n">
-        <v>0.644</v>
+        <v>0.697</v>
       </c>
       <c r="E83" t="n">
-        <v>0.356</v>
+        <v>0.303</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1221108436584473</v>
+        <v>0.09879636764526367</v>
       </c>
     </row>
     <row r="84">
@@ -2270,13 +2270,13 @@
         <v>25</v>
       </c>
       <c r="D84" t="n">
-        <v>0.705</v>
+        <v>0.654</v>
       </c>
       <c r="E84" t="n">
-        <v>0.295</v>
+        <v>0.346</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1131100654602051</v>
+        <v>0.09307599067687988</v>
       </c>
     </row>
     <row r="85">
@@ -2292,13 +2292,13 @@
         <v>25</v>
       </c>
       <c r="D85" t="n">
-        <v>0.703</v>
+        <v>0.645</v>
       </c>
       <c r="E85" t="n">
-        <v>0.297</v>
+        <v>0.355</v>
       </c>
       <c r="F85" t="n">
-        <v>0.09039711952209473</v>
+        <v>0.1010007858276367</v>
       </c>
     </row>
     <row r="86">
@@ -2314,13 +2314,13 @@
         <v>25</v>
       </c>
       <c r="D86" t="n">
-        <v>0.761</v>
+        <v>0.695</v>
       </c>
       <c r="E86" t="n">
-        <v>0.239</v>
+        <v>0.305</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1093089580535889</v>
+        <v>0.09943485260009766</v>
       </c>
     </row>
     <row r="87">
@@ -2336,13 +2336,13 @@
         <v>25</v>
       </c>
       <c r="D87" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.671</v>
       </c>
       <c r="E87" t="n">
-        <v>0.312</v>
+        <v>0.329</v>
       </c>
       <c r="F87" t="n">
-        <v>0.09372806549072266</v>
+        <v>0.1011302471160889</v>
       </c>
     </row>
     <row r="88">
@@ -2358,13 +2358,13 @@
         <v>25</v>
       </c>
       <c r="D88" t="n">
-        <v>0.747</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>0.253</v>
+        <v>0.309</v>
       </c>
       <c r="F88" t="n">
-        <v>0.09377145767211914</v>
+        <v>0.09300088882446289</v>
       </c>
     </row>
     <row r="89">
@@ -2380,13 +2380,13 @@
         <v>25</v>
       </c>
       <c r="D89" t="n">
-        <v>0.758</v>
+        <v>0.671</v>
       </c>
       <c r="E89" t="n">
-        <v>0.242</v>
+        <v>0.329</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1093461513519287</v>
+        <v>0.09897947311401367</v>
       </c>
     </row>
     <row r="90">
@@ -2402,13 +2402,13 @@
         <v>25</v>
       </c>
       <c r="D90" t="n">
-        <v>0.706</v>
+        <v>0.704</v>
       </c>
       <c r="E90" t="n">
-        <v>0.294</v>
+        <v>0.296</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09371829032897949</v>
+        <v>0.0930485725402832</v>
       </c>
     </row>
     <row r="91">
@@ -2424,13 +2424,13 @@
         <v>25</v>
       </c>
       <c r="D91" t="n">
-        <v>0.705</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="E91" t="n">
-        <v>0.295</v>
+        <v>0.312</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1093170642852783</v>
+        <v>0.1011371612548828</v>
       </c>
     </row>
     <row r="92">
@@ -2446,13 +2446,13 @@
         <v>25</v>
       </c>
       <c r="D92" t="n">
-        <v>0.76</v>
+        <v>0.752</v>
       </c>
       <c r="E92" t="n">
-        <v>0.24</v>
+        <v>0.248</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09377074241638184</v>
+        <v>0.1008977890014648</v>
       </c>
     </row>
     <row r="93">
@@ -2468,13 +2468,13 @@
         <v>25</v>
       </c>
       <c r="D93" t="n">
-        <v>0.722</v>
+        <v>0.632</v>
       </c>
       <c r="E93" t="n">
-        <v>0.278</v>
+        <v>0.368</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09373092651367188</v>
+        <v>0.09134030342102051</v>
       </c>
     </row>
     <row r="94">
@@ -2490,13 +2490,13 @@
         <v>25</v>
       </c>
       <c r="D94" t="n">
-        <v>0.666</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>0.334</v>
+        <v>0.316</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1093049049377441</v>
+        <v>0.09911298751831055</v>
       </c>
     </row>
     <row r="95">
@@ -2512,13 +2512,13 @@
         <v>25</v>
       </c>
       <c r="D95" t="n">
-        <v>0.703</v>
+        <v>0.753</v>
       </c>
       <c r="E95" t="n">
-        <v>0.297</v>
+        <v>0.247</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09372830390930176</v>
+        <v>0.0930030345916748</v>
       </c>
     </row>
     <row r="96">
@@ -2534,13 +2534,13 @@
         <v>25</v>
       </c>
       <c r="D96" t="n">
-        <v>0.695</v>
+        <v>0.746</v>
       </c>
       <c r="E96" t="n">
-        <v>0.305</v>
+        <v>0.254</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1417086124420166</v>
+        <v>0.1010708808898926</v>
       </c>
     </row>
     <row r="97">
@@ -2556,13 +2556,13 @@
         <v>25</v>
       </c>
       <c r="D97" t="n">
-        <v>0.699</v>
+        <v>0.698</v>
       </c>
       <c r="E97" t="n">
-        <v>0.301</v>
+        <v>0.302</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2502224445343018</v>
+        <v>0.1010420322418213</v>
       </c>
     </row>
     <row r="98">
@@ -2578,13 +2578,13 @@
         <v>25</v>
       </c>
       <c r="D98" t="n">
-        <v>0.705</v>
+        <v>0.675</v>
       </c>
       <c r="E98" t="n">
-        <v>0.295</v>
+        <v>0.325</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1405882835388184</v>
+        <v>0.1009960174560547</v>
       </c>
     </row>
     <row r="99">
@@ -2600,13 +2600,13 @@
         <v>25</v>
       </c>
       <c r="D99" t="n">
-        <v>0.706</v>
+        <v>0.727</v>
       </c>
       <c r="E99" t="n">
-        <v>0.294</v>
+        <v>0.273</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1249699592590332</v>
+        <v>0.1010360717773438</v>
       </c>
     </row>
     <row r="100">
@@ -2622,13 +2622,13 @@
         <v>25</v>
       </c>
       <c r="D100" t="n">
-        <v>0.695</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="E100" t="n">
-        <v>0.305</v>
+        <v>0.312</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1390049457550049</v>
+        <v>0.09890437126159668</v>
       </c>
     </row>
     <row r="101">
@@ -2644,13 +2644,13 @@
         <v>25</v>
       </c>
       <c r="D101" t="n">
-        <v>0.68</v>
+        <v>0.708</v>
       </c>
       <c r="E101" t="n">
-        <v>0.32</v>
+        <v>0.292</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1351978778839111</v>
+        <v>0.09297275543212891</v>
       </c>
     </row>
     <row r="102">
@@ -2666,13 +2666,13 @@
         <v>25</v>
       </c>
       <c r="D102" t="n">
-        <v>0.7012987012987013</v>
+        <v>0.7152847152847153</v>
       </c>
       <c r="E102" t="n">
-        <v>0.2987012987012987</v>
+        <v>0.2847152847152847</v>
       </c>
       <c r="F102" t="n">
-        <v>8.375</v>
+        <v>17.40625</v>
       </c>
     </row>
     <row r="103">
@@ -2688,13 +2688,13 @@
         <v>25</v>
       </c>
       <c r="D103" t="n">
-        <v>0.7472527472527473</v>
+        <v>0.7192807192807192</v>
       </c>
       <c r="E103" t="n">
-        <v>0.2527472527472527</v>
+        <v>0.2807192807192807</v>
       </c>
       <c r="F103" t="n">
-        <v>8.125</v>
+        <v>17.296875</v>
       </c>
     </row>
     <row r="104">
@@ -2710,13 +2710,13 @@
         <v>25</v>
       </c>
       <c r="D104" t="n">
-        <v>0.7062937062937062</v>
+        <v>0.7262737262737263</v>
       </c>
       <c r="E104" t="n">
-        <v>0.2937062937062937</v>
+        <v>0.2737262737262737</v>
       </c>
       <c r="F104" t="n">
-        <v>8.078125</v>
+        <v>17.53125</v>
       </c>
     </row>
     <row r="105">
@@ -2732,13 +2732,13 @@
         <v>25</v>
       </c>
       <c r="D105" t="n">
-        <v>0.7112887112887113</v>
+        <v>0.7342657342657343</v>
       </c>
       <c r="E105" t="n">
-        <v>0.2887112887112887</v>
+        <v>0.2657342657342657</v>
       </c>
       <c r="F105" t="n">
-        <v>8.203125</v>
+        <v>17.59375</v>
       </c>
     </row>
     <row r="106">
@@ -2754,13 +2754,13 @@
         <v>25</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7522477522477522</v>
+        <v>0.7202797202797203</v>
       </c>
       <c r="E106" t="n">
-        <v>0.2477522477522477</v>
+        <v>0.2797202797202797</v>
       </c>
       <c r="F106" t="n">
-        <v>7.84375</v>
+        <v>17.828125</v>
       </c>
     </row>
     <row r="107">
@@ -2776,13 +2776,13 @@
         <v>25</v>
       </c>
       <c r="D107" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.6963036963036963</v>
       </c>
       <c r="E107" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.3036963036963037</v>
       </c>
       <c r="F107" t="n">
-        <v>8.421875</v>
+        <v>17.90625</v>
       </c>
     </row>
     <row r="108">
@@ -2798,13 +2798,13 @@
         <v>25</v>
       </c>
       <c r="D108" t="n">
-        <v>0.7122877122877123</v>
+        <v>0.7112887112887113</v>
       </c>
       <c r="E108" t="n">
-        <v>0.2877122877122877</v>
+        <v>0.2887112887112887</v>
       </c>
       <c r="F108" t="n">
-        <v>8.4375</v>
+        <v>17.46875</v>
       </c>
     </row>
     <row r="109">
@@ -2820,13 +2820,13 @@
         <v>25</v>
       </c>
       <c r="D109" t="n">
-        <v>0.7212787212787213</v>
+        <v>0.7032967032967034</v>
       </c>
       <c r="E109" t="n">
-        <v>0.2787212787212787</v>
+        <v>0.2967032967032967</v>
       </c>
       <c r="F109" t="n">
-        <v>8.203125</v>
+        <v>17.859375</v>
       </c>
     </row>
     <row r="110">
@@ -2842,13 +2842,13 @@
         <v>25</v>
       </c>
       <c r="D110" t="n">
-        <v>0.7292707292707292</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="E110" t="n">
-        <v>0.2707292707292707</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="F110" t="n">
-        <v>8.28125</v>
+        <v>17.5625</v>
       </c>
     </row>
     <row r="111">
@@ -2864,13 +2864,13 @@
         <v>25</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7282717282717283</v>
+        <v>0.6803196803196803</v>
       </c>
       <c r="E111" t="n">
-        <v>0.2717282717282717</v>
+        <v>0.3196803196803197</v>
       </c>
       <c r="F111" t="n">
-        <v>8.171875</v>
+        <v>17.96875</v>
       </c>
     </row>
     <row r="112">
@@ -2886,13 +2886,13 @@
         <v>25</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7192807192807192</v>
+        <v>0.6993006993006993</v>
       </c>
       <c r="E112" t="n">
-        <v>0.2807192807192807</v>
+        <v>0.3006993006993007</v>
       </c>
       <c r="F112" t="n">
-        <v>8.25</v>
+        <v>17.71875</v>
       </c>
     </row>
     <row r="113">
@@ -2908,13 +2908,13 @@
         <v>25</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7192807192807192</v>
+        <v>0.6833166833166833</v>
       </c>
       <c r="E113" t="n">
-        <v>0.2807192807192807</v>
+        <v>0.3166833166833167</v>
       </c>
       <c r="F113" t="n">
-        <v>7.875</v>
+        <v>18.03125</v>
       </c>
     </row>
     <row r="114">
@@ -2930,13 +2930,13 @@
         <v>25</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7292707292707292</v>
+        <v>0.7412587412587412</v>
       </c>
       <c r="E114" t="n">
-        <v>0.2707292707292707</v>
+        <v>0.2587412587412588</v>
       </c>
       <c r="F114" t="n">
-        <v>7.984375</v>
+        <v>17.703125</v>
       </c>
     </row>
     <row r="115">
@@ -2952,13 +2952,13 @@
         <v>25</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7232767232767233</v>
+        <v>0.7222777222777222</v>
       </c>
       <c r="E115" t="n">
-        <v>0.2767232767232767</v>
+        <v>0.2777222777222777</v>
       </c>
       <c r="F115" t="n">
-        <v>8.390625</v>
+        <v>17.5625</v>
       </c>
     </row>
     <row r="116">
@@ -2974,13 +2974,13 @@
         <v>25</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7132867132867133</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="E116" t="n">
-        <v>0.2867132867132867</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="F116" t="n">
-        <v>8.03125</v>
+        <v>17.875</v>
       </c>
     </row>
     <row r="117">
@@ -2996,13 +2996,13 @@
         <v>25</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7212787212787213</v>
+        <v>0.7202797202797203</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2787212787212787</v>
+        <v>0.2797202797202797</v>
       </c>
       <c r="F117" t="n">
-        <v>8.15625</v>
+        <v>17.84375</v>
       </c>
     </row>
     <row r="118">
@@ -3018,13 +3018,13 @@
         <v>25</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7342657342657343</v>
+        <v>0.7022977022977023</v>
       </c>
       <c r="E118" t="n">
-        <v>0.2657342657342657</v>
+        <v>0.2977022977022977</v>
       </c>
       <c r="F118" t="n">
-        <v>8.78125</v>
+        <v>17.515625</v>
       </c>
     </row>
     <row r="119">
@@ -3040,13 +3040,13 @@
         <v>25</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7082917082917083</v>
+        <v>0.6943056943056943</v>
       </c>
       <c r="E119" t="n">
-        <v>0.2917082917082917</v>
+        <v>0.3056943056943057</v>
       </c>
       <c r="F119" t="n">
-        <v>8.328125</v>
+        <v>17.9375</v>
       </c>
     </row>
     <row r="120">
@@ -3062,13 +3062,13 @@
         <v>25</v>
       </c>
       <c r="D120" t="n">
-        <v>0.7222777222777222</v>
+        <v>0.7072927072927073</v>
       </c>
       <c r="E120" t="n">
-        <v>0.2777222777222777</v>
+        <v>0.2927072927072927</v>
       </c>
       <c r="F120" t="n">
-        <v>8.625</v>
+        <v>18.390625</v>
       </c>
     </row>
     <row r="121">
@@ -3084,13 +3084,13 @@
         <v>25</v>
       </c>
       <c r="D121" t="n">
-        <v>0.7312687312687313</v>
+        <v>0.6813186813186813</v>
       </c>
       <c r="E121" t="n">
-        <v>0.2687312687312687</v>
+        <v>0.3186813186813187</v>
       </c>
       <c r="F121" t="n">
-        <v>8.765625</v>
+        <v>17.671875</v>
       </c>
     </row>
     <row r="122">
@@ -3106,13 +3106,13 @@
         <v>25</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7002997002997003</v>
+        <v>0.6893106893106893</v>
       </c>
       <c r="E122" t="n">
-        <v>0.2997002997002997</v>
+        <v>0.3106893106893107</v>
       </c>
       <c r="F122" t="n">
-        <v>8.453125</v>
+        <v>17.828125</v>
       </c>
     </row>
     <row r="123">
@@ -3128,13 +3128,13 @@
         <v>25</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7092907092907093</v>
+        <v>0.7132867132867133</v>
       </c>
       <c r="E123" t="n">
-        <v>0.2907092907092907</v>
+        <v>0.2867132867132867</v>
       </c>
       <c r="F123" t="n">
-        <v>8.375</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124">
@@ -3150,13 +3150,13 @@
         <v>25</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7242757242757243</v>
+        <v>0.7172827172827173</v>
       </c>
       <c r="E124" t="n">
-        <v>0.2757242757242757</v>
+        <v>0.2827172827172827</v>
       </c>
       <c r="F124" t="n">
-        <v>8.515625</v>
+        <v>17.65625</v>
       </c>
     </row>
     <row r="125">
@@ -3172,13 +3172,13 @@
         <v>25</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7062937062937062</v>
+        <v>0.7492507492507493</v>
       </c>
       <c r="E125" t="n">
-        <v>0.2937062937062937</v>
+        <v>0.2507492507492508</v>
       </c>
       <c r="F125" t="n">
-        <v>7.65625</v>
+        <v>17.28125</v>
       </c>
     </row>
     <row r="126">
@@ -3194,13 +3194,13 @@
         <v>25</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6953046953046953</v>
+        <v>0.6963036963036963</v>
       </c>
       <c r="E126" t="n">
-        <v>0.3046953046953047</v>
+        <v>0.3036963036963037</v>
       </c>
       <c r="F126" t="n">
-        <v>7.875</v>
+        <v>17.953125</v>
       </c>
     </row>
     <row r="127">
@@ -3216,13 +3216,13 @@
         <v>25</v>
       </c>
       <c r="D127" t="n">
-        <v>0.7072927072927073</v>
+        <v>0.6763236763236763</v>
       </c>
       <c r="E127" t="n">
-        <v>0.2927072927072927</v>
+        <v>0.3236763236763237</v>
       </c>
       <c r="F127" t="n">
-        <v>9.375</v>
+        <v>20.65625</v>
       </c>
     </row>
     <row r="128">
@@ -3238,13 +3238,13 @@
         <v>25</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7112887112887113</v>
+        <v>0.6453546453546454</v>
       </c>
       <c r="E128" t="n">
-        <v>0.2887112887112887</v>
+        <v>0.3546453546453546</v>
       </c>
       <c r="F128" t="n">
-        <v>9.296875</v>
+        <v>19.671875</v>
       </c>
     </row>
     <row r="129">
@@ -3260,13 +3260,13 @@
         <v>25</v>
       </c>
       <c r="D129" t="n">
-        <v>0.7012987012987013</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="E129" t="n">
-        <v>0.2987012987012987</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="F129" t="n">
-        <v>9.5625</v>
+        <v>19.484375</v>
       </c>
     </row>
     <row r="130">
@@ -3282,13 +3282,13 @@
         <v>25</v>
       </c>
       <c r="D130" t="n">
-        <v>0.7012987012987013</v>
+        <v>0.6953046953046953</v>
       </c>
       <c r="E130" t="n">
-        <v>0.2987012987012987</v>
+        <v>0.3046953046953047</v>
       </c>
       <c r="F130" t="n">
-        <v>9.65625</v>
+        <v>18.65625</v>
       </c>
     </row>
     <row r="131">
@@ -3304,13 +3304,13 @@
         <v>25</v>
       </c>
       <c r="D131" t="n">
-        <v>0.6873126873126874</v>
+        <v>0.6973026973026973</v>
       </c>
       <c r="E131" t="n">
-        <v>0.3126873126873127</v>
+        <v>0.3026973026973027</v>
       </c>
       <c r="F131" t="n">
-        <v>9.6875</v>
+        <v>19.875</v>
       </c>
     </row>
     <row r="132">
@@ -3326,13 +3326,13 @@
         <v>25</v>
       </c>
       <c r="D132" t="n">
-        <v>0.7092907092907093</v>
+        <v>0.7032967032967034</v>
       </c>
       <c r="E132" t="n">
-        <v>0.2907092907092907</v>
+        <v>0.2967032967032967</v>
       </c>
       <c r="F132" t="n">
-        <v>9.375</v>
+        <v>19.671875</v>
       </c>
     </row>
     <row r="133">
@@ -3348,13 +3348,13 @@
         <v>25</v>
       </c>
       <c r="D133" t="n">
-        <v>0.7242757242757243</v>
+        <v>0.7082917082917083</v>
       </c>
       <c r="E133" t="n">
-        <v>0.2757242757242757</v>
+        <v>0.2917082917082917</v>
       </c>
       <c r="F133" t="n">
-        <v>9.484375</v>
+        <v>20.21875</v>
       </c>
     </row>
     <row r="134">
@@ -3370,13 +3370,13 @@
         <v>25</v>
       </c>
       <c r="D134" t="n">
-        <v>0.6803196803196803</v>
+        <v>0.7192807192807192</v>
       </c>
       <c r="E134" t="n">
-        <v>0.3196803196803197</v>
+        <v>0.2807192807192807</v>
       </c>
       <c r="F134" t="n">
-        <v>9.671875</v>
+        <v>19.5625</v>
       </c>
     </row>
     <row r="135">
@@ -3392,13 +3392,13 @@
         <v>25</v>
       </c>
       <c r="D135" t="n">
-        <v>0.7032967032967034</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="E135" t="n">
-        <v>0.2967032967032967</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="F135" t="n">
-        <v>9.484375</v>
+        <v>19.921875</v>
       </c>
     </row>
     <row r="136">
@@ -3414,13 +3414,13 @@
         <v>25</v>
       </c>
       <c r="D136" t="n">
-        <v>0.7062937062937062</v>
+        <v>0.6933066933066933</v>
       </c>
       <c r="E136" t="n">
-        <v>0.2937062937062937</v>
+        <v>0.3066933066933067</v>
       </c>
       <c r="F136" t="n">
-        <v>9.921875</v>
+        <v>20.421875</v>
       </c>
     </row>
     <row r="137">
@@ -3436,13 +3436,13 @@
         <v>25</v>
       </c>
       <c r="D137" t="n">
-        <v>0.7232767232767233</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="E137" t="n">
-        <v>0.2767232767232767</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="F137" t="n">
-        <v>9.53125</v>
+        <v>19.90625</v>
       </c>
     </row>
     <row r="138">
@@ -3458,13 +3458,13 @@
         <v>25</v>
       </c>
       <c r="D138" t="n">
-        <v>0.6983016983016983</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="E138" t="n">
-        <v>0.3016983016983017</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="F138" t="n">
-        <v>9.578125</v>
+        <v>19.390625</v>
       </c>
     </row>
     <row r="139">
@@ -3480,13 +3480,13 @@
         <v>25</v>
       </c>
       <c r="D139" t="n">
-        <v>0.6693306693306693</v>
+        <v>0.7072927072927073</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3306693306693307</v>
+        <v>0.2927072927072927</v>
       </c>
       <c r="F139" t="n">
-        <v>9.765625</v>
+        <v>19.53125</v>
       </c>
     </row>
     <row r="140">
@@ -3502,13 +3502,13 @@
         <v>25</v>
       </c>
       <c r="D140" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.6713286713286714</v>
       </c>
       <c r="E140" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3286713286713286</v>
       </c>
       <c r="F140" t="n">
-        <v>9.609375</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="141">
@@ -3524,13 +3524,13 @@
         <v>25</v>
       </c>
       <c r="D141" t="n">
-        <v>0.6823176823176823</v>
+        <v>0.6983016983016983</v>
       </c>
       <c r="E141" t="n">
-        <v>0.3176823176823177</v>
+        <v>0.3016983016983017</v>
       </c>
       <c r="F141" t="n">
-        <v>9.6875</v>
+        <v>19.4375</v>
       </c>
     </row>
     <row r="142">
@@ -3546,13 +3546,13 @@
         <v>25</v>
       </c>
       <c r="D142" t="n">
-        <v>0.6913086913086913</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="E142" t="n">
-        <v>0.3086913086913087</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="F142" t="n">
-        <v>9.953125</v>
+        <v>19.84375</v>
       </c>
     </row>
     <row r="143">
@@ -3568,13 +3568,13 @@
         <v>25</v>
       </c>
       <c r="D143" t="n">
-        <v>0.6933066933066933</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="E143" t="n">
-        <v>0.3066933066933067</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="F143" t="n">
-        <v>10.390625</v>
+        <v>19.4375</v>
       </c>
     </row>
     <row r="144">
@@ -3590,13 +3590,13 @@
         <v>25</v>
       </c>
       <c r="D144" t="n">
-        <v>0.7132867132867133</v>
+        <v>0.6873126873126874</v>
       </c>
       <c r="E144" t="n">
-        <v>0.2867132867132867</v>
+        <v>0.3126873126873127</v>
       </c>
       <c r="F144" t="n">
-        <v>10.03125</v>
+        <v>19.5625</v>
       </c>
     </row>
     <row r="145">
@@ -3612,13 +3612,13 @@
         <v>25</v>
       </c>
       <c r="D145" t="n">
-        <v>0.7072927072927073</v>
+        <v>0.6803196803196803</v>
       </c>
       <c r="E145" t="n">
-        <v>0.2927072927072927</v>
+        <v>0.3196803196803197</v>
       </c>
       <c r="F145" t="n">
-        <v>9.53125</v>
+        <v>19.296875</v>
       </c>
     </row>
     <row r="146">
@@ -3634,13 +3634,13 @@
         <v>25</v>
       </c>
       <c r="D146" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="E146" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="F146" t="n">
-        <v>9.9375</v>
+        <v>18.96875</v>
       </c>
     </row>
     <row r="147">
@@ -3656,13 +3656,13 @@
         <v>25</v>
       </c>
       <c r="D147" t="n">
-        <v>0.7022977022977023</v>
+        <v>0.6863136863136863</v>
       </c>
       <c r="E147" t="n">
-        <v>0.2977022977022977</v>
+        <v>0.3136863136863137</v>
       </c>
       <c r="F147" t="n">
-        <v>9.984375</v>
+        <v>19.65625</v>
       </c>
     </row>
     <row r="148">
@@ -3678,13 +3678,13 @@
         <v>25</v>
       </c>
       <c r="D148" t="n">
-        <v>0.7112887112887113</v>
+        <v>0.7062937062937062</v>
       </c>
       <c r="E148" t="n">
-        <v>0.2887112887112887</v>
+        <v>0.2937062937062937</v>
       </c>
       <c r="F148" t="n">
-        <v>9.71875</v>
+        <v>19.421875</v>
       </c>
     </row>
     <row r="149">
@@ -3700,13 +3700,13 @@
         <v>25</v>
       </c>
       <c r="D149" t="n">
-        <v>0.7052947052947053</v>
+        <v>0.7162837162837162</v>
       </c>
       <c r="E149" t="n">
-        <v>0.2947052947052947</v>
+        <v>0.2837162837162837</v>
       </c>
       <c r="F149" t="n">
-        <v>9.953125</v>
+        <v>19.171875</v>
       </c>
     </row>
     <row r="150">
@@ -3722,13 +3722,13 @@
         <v>25</v>
       </c>
       <c r="D150" t="n">
-        <v>0.7162837162837162</v>
+        <v>0.7022977022977023</v>
       </c>
       <c r="E150" t="n">
-        <v>0.2837162837162837</v>
+        <v>0.2977022977022977</v>
       </c>
       <c r="F150" t="n">
-        <v>9.234375</v>
+        <v>18.421875</v>
       </c>
     </row>
     <row r="151">
@@ -3744,13 +3744,13 @@
         <v>25</v>
       </c>
       <c r="D151" t="n">
-        <v>0.7122877122877123</v>
+        <v>0.7152847152847153</v>
       </c>
       <c r="E151" t="n">
-        <v>0.2877122877122877</v>
+        <v>0.2847152847152847</v>
       </c>
       <c r="F151" t="n">
-        <v>9.640625</v>
+        <v>18.734375</v>
       </c>
     </row>
     <row r="152">
@@ -3766,13 +3766,13 @@
         <v>25</v>
       </c>
       <c r="D152" t="n">
-        <v>0.7072927072927073</v>
+        <v>0.7062937062937062</v>
       </c>
       <c r="E152" t="n">
-        <v>0.2927072927072927</v>
+        <v>0.2937062937062937</v>
       </c>
       <c r="F152" t="n">
-        <v>10.828125</v>
+        <v>21.53125</v>
       </c>
     </row>
     <row r="153">
@@ -3788,13 +3788,13 @@
         <v>25</v>
       </c>
       <c r="D153" t="n">
-        <v>0.7232767232767233</v>
+        <v>0.7132867132867133</v>
       </c>
       <c r="E153" t="n">
-        <v>0.2767232767232767</v>
+        <v>0.2867132867132867</v>
       </c>
       <c r="F153" t="n">
-        <v>10.59375</v>
+        <v>20.578125</v>
       </c>
     </row>
     <row r="154">
@@ -3810,13 +3810,13 @@
         <v>25</v>
       </c>
       <c r="D154" t="n">
-        <v>0.7062937062937062</v>
+        <v>0.7522477522477522</v>
       </c>
       <c r="E154" t="n">
-        <v>0.2937062937062937</v>
+        <v>0.2477522477522477</v>
       </c>
       <c r="F154" t="n">
-        <v>10.734375</v>
+        <v>21.15625</v>
       </c>
     </row>
     <row r="155">
@@ -3832,13 +3832,13 @@
         <v>25</v>
       </c>
       <c r="D155" t="n">
-        <v>0.7202797202797203</v>
+        <v>0.7132867132867133</v>
       </c>
       <c r="E155" t="n">
-        <v>0.2797202797202797</v>
+        <v>0.2867132867132867</v>
       </c>
       <c r="F155" t="n">
-        <v>10.84375</v>
+        <v>21.328125</v>
       </c>
     </row>
     <row r="156">
@@ -3854,13 +3854,13 @@
         <v>25</v>
       </c>
       <c r="D156" t="n">
-        <v>0.7182817182817183</v>
+        <v>0.7282717282717283</v>
       </c>
       <c r="E156" t="n">
-        <v>0.2817182817182817</v>
+        <v>0.2717282717282717</v>
       </c>
       <c r="F156" t="n">
-        <v>11.171875</v>
+        <v>20.890625</v>
       </c>
     </row>
     <row r="157">
@@ -3876,13 +3876,13 @@
         <v>25</v>
       </c>
       <c r="D157" t="n">
-        <v>0.7192807192807192</v>
+        <v>0.7572427572427572</v>
       </c>
       <c r="E157" t="n">
-        <v>0.2807192807192807</v>
+        <v>0.2427572427572428</v>
       </c>
       <c r="F157" t="n">
-        <v>10.4375</v>
+        <v>21.484375</v>
       </c>
     </row>
     <row r="158">
@@ -3898,13 +3898,13 @@
         <v>25</v>
       </c>
       <c r="D158" t="n">
-        <v>0.7042957042957043</v>
+        <v>0.6743256743256744</v>
       </c>
       <c r="E158" t="n">
-        <v>0.2957042957042957</v>
+        <v>0.3256743256743257</v>
       </c>
       <c r="F158" t="n">
-        <v>10.609375</v>
+        <v>21.6875</v>
       </c>
     </row>
     <row r="159">
@@ -3920,13 +3920,13 @@
         <v>25</v>
       </c>
       <c r="D159" t="n">
-        <v>0.7332667332667333</v>
+        <v>0.7252747252747253</v>
       </c>
       <c r="E159" t="n">
-        <v>0.2667332667332667</v>
+        <v>0.2747252747252747</v>
       </c>
       <c r="F159" t="n">
-        <v>10.796875</v>
+        <v>21.359375</v>
       </c>
     </row>
     <row r="160">
@@ -3942,13 +3942,13 @@
         <v>25</v>
       </c>
       <c r="D160" t="n">
-        <v>0.7322677322677322</v>
+        <v>0.7302697302697303</v>
       </c>
       <c r="E160" t="n">
-        <v>0.2677322677322677</v>
+        <v>0.2697302697302698</v>
       </c>
       <c r="F160" t="n">
-        <v>10.703125</v>
+        <v>21.234375</v>
       </c>
     </row>
     <row r="161">
@@ -3964,13 +3964,13 @@
         <v>25</v>
       </c>
       <c r="D161" t="n">
-        <v>0.7032967032967034</v>
+        <v>0.7282717282717283</v>
       </c>
       <c r="E161" t="n">
-        <v>0.2967032967032967</v>
+        <v>0.2717282717282717</v>
       </c>
       <c r="F161" t="n">
-        <v>10.78125</v>
+        <v>20.875</v>
       </c>
     </row>
     <row r="162">
@@ -3986,13 +3986,13 @@
         <v>25</v>
       </c>
       <c r="D162" t="n">
-        <v>0.7092907092907093</v>
+        <v>0.7052947052947053</v>
       </c>
       <c r="E162" t="n">
-        <v>0.2907092907092907</v>
+        <v>0.2947052947052947</v>
       </c>
       <c r="F162" t="n">
-        <v>10.78125</v>
+        <v>20.6875</v>
       </c>
     </row>
     <row r="163">
@@ -4008,13 +4008,13 @@
         <v>25</v>
       </c>
       <c r="D163" t="n">
-        <v>0.6853146853146853</v>
+        <v>0.7292707292707292</v>
       </c>
       <c r="E163" t="n">
-        <v>0.3146853146853147</v>
+        <v>0.2707292707292707</v>
       </c>
       <c r="F163" t="n">
-        <v>10.40625</v>
+        <v>20.3125</v>
       </c>
     </row>
     <row r="164">
@@ -4036,7 +4036,7 @@
         <v>0.2897102897102897</v>
       </c>
       <c r="F164" t="n">
-        <v>10.703125</v>
+        <v>21.109375</v>
       </c>
     </row>
     <row r="165">
@@ -4052,13 +4052,13 @@
         <v>25</v>
       </c>
       <c r="D165" t="n">
-        <v>0.7252747252747253</v>
+        <v>0.7202797202797203</v>
       </c>
       <c r="E165" t="n">
-        <v>0.2747252747252747</v>
+        <v>0.2797202797202797</v>
       </c>
       <c r="F165" t="n">
-        <v>10.890625</v>
+        <v>21.078125</v>
       </c>
     </row>
     <row r="166">
@@ -4074,13 +4074,13 @@
         <v>25</v>
       </c>
       <c r="D166" t="n">
-        <v>0.7282717282717283</v>
+        <v>0.6913086913086913</v>
       </c>
       <c r="E166" t="n">
-        <v>0.2717282717282717</v>
+        <v>0.3086913086913087</v>
       </c>
       <c r="F166" t="n">
-        <v>10.71875</v>
+        <v>21</v>
       </c>
     </row>
     <row r="167">
@@ -4096,13 +4096,13 @@
         <v>25</v>
       </c>
       <c r="D167" t="n">
-        <v>0.7052947052947053</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="E167" t="n">
-        <v>0.2947052947052947</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="F167" t="n">
-        <v>10.40625</v>
+        <v>21.640625</v>
       </c>
     </row>
     <row r="168">
@@ -4118,13 +4118,13 @@
         <v>25</v>
       </c>
       <c r="D168" t="n">
-        <v>0.6813186813186813</v>
+        <v>0.7062937062937062</v>
       </c>
       <c r="E168" t="n">
-        <v>0.3186813186813187</v>
+        <v>0.2937062937062937</v>
       </c>
       <c r="F168" t="n">
-        <v>10.65625</v>
+        <v>21.21875</v>
       </c>
     </row>
     <row r="169">
@@ -4140,13 +4140,13 @@
         <v>25</v>
       </c>
       <c r="D169" t="n">
-        <v>0.7172827172827173</v>
+        <v>0.7422577422577422</v>
       </c>
       <c r="E169" t="n">
-        <v>0.2827172827172827</v>
+        <v>0.2577422577422577</v>
       </c>
       <c r="F169" t="n">
-        <v>10.9375</v>
+        <v>21.703125</v>
       </c>
     </row>
     <row r="170">
@@ -4162,13 +4162,13 @@
         <v>25</v>
       </c>
       <c r="D170" t="n">
-        <v>0.7092907092907093</v>
+        <v>0.7162837162837162</v>
       </c>
       <c r="E170" t="n">
-        <v>0.2907092907092907</v>
+        <v>0.2837162837162837</v>
       </c>
       <c r="F170" t="n">
-        <v>10.609375</v>
+        <v>20.859375</v>
       </c>
     </row>
     <row r="171">
@@ -4184,13 +4184,13 @@
         <v>25</v>
       </c>
       <c r="D171" t="n">
-        <v>0.6853146853146853</v>
+        <v>0.6833166833166833</v>
       </c>
       <c r="E171" t="n">
-        <v>0.3146853146853147</v>
+        <v>0.3166833166833167</v>
       </c>
       <c r="F171" t="n">
-        <v>10.59375</v>
+        <v>20.6875</v>
       </c>
     </row>
     <row r="172">
@@ -4206,13 +4206,13 @@
         <v>25</v>
       </c>
       <c r="D172" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.7242757242757243</v>
       </c>
       <c r="E172" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.2757242757242757</v>
       </c>
       <c r="F172" t="n">
-        <v>10.828125</v>
+        <v>21.0625</v>
       </c>
     </row>
     <row r="173">
@@ -4228,13 +4228,13 @@
         <v>25</v>
       </c>
       <c r="D173" t="n">
-        <v>0.7132867132867133</v>
+        <v>0.7252747252747253</v>
       </c>
       <c r="E173" t="n">
-        <v>0.2867132867132867</v>
+        <v>0.2747252747252747</v>
       </c>
       <c r="F173" t="n">
-        <v>10.5625</v>
+        <v>21.515625</v>
       </c>
     </row>
     <row r="174">
@@ -4250,13 +4250,13 @@
         <v>25</v>
       </c>
       <c r="D174" t="n">
-        <v>0.7122877122877123</v>
+        <v>0.7292707292707292</v>
       </c>
       <c r="E174" t="n">
-        <v>0.2877122877122877</v>
+        <v>0.2707292707292707</v>
       </c>
       <c r="F174" t="n">
-        <v>10.65625</v>
+        <v>21.765625</v>
       </c>
     </row>
     <row r="175">
@@ -4272,13 +4272,13 @@
         <v>25</v>
       </c>
       <c r="D175" t="n">
-        <v>0.7122877122877123</v>
+        <v>0.7302697302697303</v>
       </c>
       <c r="E175" t="n">
-        <v>0.2877122877122877</v>
+        <v>0.2697302697302698</v>
       </c>
       <c r="F175" t="n">
-        <v>10.65625</v>
+        <v>20.140625</v>
       </c>
     </row>
     <row r="176">
@@ -4294,13 +4294,13 @@
         <v>25</v>
       </c>
       <c r="D176" t="n">
-        <v>0.7072927072927073</v>
+        <v>0.7112887112887113</v>
       </c>
       <c r="E176" t="n">
-        <v>0.2927072927072927</v>
+        <v>0.2887112887112887</v>
       </c>
       <c r="F176" t="n">
-        <v>9.640625</v>
+        <v>19.953125</v>
       </c>
     </row>
     <row r="177">
@@ -4316,13 +4316,13 @@
         <v>25</v>
       </c>
       <c r="D177" t="n">
-        <v>0.7152847152847153</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="E177" t="n">
-        <v>0.2847152847152847</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="F177" t="n">
-        <v>10.9375</v>
+        <v>21.890625</v>
       </c>
     </row>
     <row r="178">
@@ -4338,13 +4338,13 @@
         <v>25</v>
       </c>
       <c r="D178" t="n">
-        <v>0.7172827172827173</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="E178" t="n">
-        <v>0.2827172827172827</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="F178" t="n">
-        <v>11.375</v>
+        <v>22.265625</v>
       </c>
     </row>
     <row r="179">
@@ -4360,13 +4360,13 @@
         <v>25</v>
       </c>
       <c r="D179" t="n">
-        <v>0.7012987012987013</v>
+        <v>0.6913086913086913</v>
       </c>
       <c r="E179" t="n">
-        <v>0.2987012987012987</v>
+        <v>0.3086913086913087</v>
       </c>
       <c r="F179" t="n">
-        <v>11.1875</v>
+        <v>22.4375</v>
       </c>
     </row>
     <row r="180">
@@ -4382,13 +4382,13 @@
         <v>25</v>
       </c>
       <c r="D180" t="n">
-        <v>0.6853146853146853</v>
+        <v>0.7212787212787213</v>
       </c>
       <c r="E180" t="n">
-        <v>0.3146853146853147</v>
+        <v>0.2787212787212787</v>
       </c>
       <c r="F180" t="n">
-        <v>11.203125</v>
+        <v>22.46875</v>
       </c>
     </row>
     <row r="181">
@@ -4404,13 +4404,13 @@
         <v>25</v>
       </c>
       <c r="D181" t="n">
-        <v>0.7132867132867133</v>
+        <v>0.6743256743256744</v>
       </c>
       <c r="E181" t="n">
-        <v>0.2867132867132867</v>
+        <v>0.3256743256743257</v>
       </c>
       <c r="F181" t="n">
-        <v>11.265625</v>
+        <v>22.46875</v>
       </c>
     </row>
     <row r="182">
@@ -4426,13 +4426,13 @@
         <v>25</v>
       </c>
       <c r="D182" t="n">
-        <v>0.6863136863136863</v>
+        <v>0.7092907092907093</v>
       </c>
       <c r="E182" t="n">
-        <v>0.3136863136863137</v>
+        <v>0.2907092907092907</v>
       </c>
       <c r="F182" t="n">
-        <v>11.625</v>
+        <v>22.484375</v>
       </c>
     </row>
     <row r="183">
@@ -4448,13 +4448,13 @@
         <v>25</v>
       </c>
       <c r="D183" t="n">
-        <v>0.6973026973026973</v>
+        <v>0.6963036963036963</v>
       </c>
       <c r="E183" t="n">
-        <v>0.3026973026973027</v>
+        <v>0.3036963036963037</v>
       </c>
       <c r="F183" t="n">
-        <v>11.453125</v>
+        <v>21.140625</v>
       </c>
     </row>
     <row r="184">
@@ -4470,13 +4470,13 @@
         <v>25</v>
       </c>
       <c r="D184" t="n">
-        <v>0.6743256743256744</v>
+        <v>0.6763236763236763</v>
       </c>
       <c r="E184" t="n">
-        <v>0.3256743256743257</v>
+        <v>0.3236763236763237</v>
       </c>
       <c r="F184" t="n">
-        <v>11.3125</v>
+        <v>21.734375</v>
       </c>
     </row>
     <row r="185">
@@ -4492,13 +4492,13 @@
         <v>25</v>
       </c>
       <c r="D185" t="n">
-        <v>0.6723276723276723</v>
+        <v>0.6893106893106893</v>
       </c>
       <c r="E185" t="n">
-        <v>0.3276723276723277</v>
+        <v>0.3106893106893107</v>
       </c>
       <c r="F185" t="n">
-        <v>11.09375</v>
+        <v>22.3125</v>
       </c>
     </row>
     <row r="186">
@@ -4514,13 +4514,13 @@
         <v>25</v>
       </c>
       <c r="D186" t="n">
-        <v>0.6823176823176823</v>
+        <v>0.6653346653346653</v>
       </c>
       <c r="E186" t="n">
-        <v>0.3176823176823177</v>
+        <v>0.3346653346653347</v>
       </c>
       <c r="F186" t="n">
-        <v>11.578125</v>
+        <v>22.671875</v>
       </c>
     </row>
     <row r="187">
@@ -4536,13 +4536,13 @@
         <v>25</v>
       </c>
       <c r="D187" t="n">
-        <v>0.6673326673326674</v>
+        <v>0.7212787212787213</v>
       </c>
       <c r="E187" t="n">
-        <v>0.3326673326673327</v>
+        <v>0.2787212787212787</v>
       </c>
       <c r="F187" t="n">
-        <v>11.375</v>
+        <v>21.96875</v>
       </c>
     </row>
     <row r="188">
@@ -4558,13 +4558,13 @@
         <v>25</v>
       </c>
       <c r="D188" t="n">
-        <v>0.6683316683316683</v>
+        <v>0.6913086913086913</v>
       </c>
       <c r="E188" t="n">
-        <v>0.3316683316683317</v>
+        <v>0.3086913086913087</v>
       </c>
       <c r="F188" t="n">
-        <v>11.375</v>
+        <v>22.21875</v>
       </c>
     </row>
     <row r="189">
@@ -4580,13 +4580,13 @@
         <v>25</v>
       </c>
       <c r="D189" t="n">
-        <v>0.7052947052947053</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="E189" t="n">
-        <v>0.2947052947052947</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="F189" t="n">
-        <v>11.28125</v>
+        <v>21.78125</v>
       </c>
     </row>
     <row r="190">
@@ -4602,13 +4602,13 @@
         <v>25</v>
       </c>
       <c r="D190" t="n">
-        <v>0.6563436563436563</v>
+        <v>0.6963036963036963</v>
       </c>
       <c r="E190" t="n">
-        <v>0.3436563436563437</v>
+        <v>0.3036963036963037</v>
       </c>
       <c r="F190" t="n">
-        <v>11.453125</v>
+        <v>22.3125</v>
       </c>
     </row>
     <row r="191">
@@ -4624,13 +4624,13 @@
         <v>25</v>
       </c>
       <c r="D191" t="n">
-        <v>0.7022977022977023</v>
+        <v>0.7052947052947053</v>
       </c>
       <c r="E191" t="n">
-        <v>0.2977022977022977</v>
+        <v>0.2947052947052947</v>
       </c>
       <c r="F191" t="n">
-        <v>10.6875</v>
+        <v>22.046875</v>
       </c>
     </row>
     <row r="192">
@@ -4646,13 +4646,13 @@
         <v>25</v>
       </c>
       <c r="D192" t="n">
-        <v>0.7112887112887113</v>
+        <v>0.7092907092907093</v>
       </c>
       <c r="E192" t="n">
-        <v>0.2887112887112887</v>
+        <v>0.2907092907092907</v>
       </c>
       <c r="F192" t="n">
-        <v>10.875</v>
+        <v>23.109375</v>
       </c>
     </row>
     <row r="193">
@@ -4668,13 +4668,13 @@
         <v>25</v>
       </c>
       <c r="D193" t="n">
-        <v>0.7092907092907093</v>
+        <v>0.7132867132867133</v>
       </c>
       <c r="E193" t="n">
-        <v>0.2907092907092907</v>
+        <v>0.2867132867132867</v>
       </c>
       <c r="F193" t="n">
-        <v>11.203125</v>
+        <v>22.3125</v>
       </c>
     </row>
     <row r="194">
@@ -4690,13 +4690,13 @@
         <v>25</v>
       </c>
       <c r="D194" t="n">
-        <v>0.7122877122877123</v>
+        <v>0.6903096903096904</v>
       </c>
       <c r="E194" t="n">
-        <v>0.2877122877122877</v>
+        <v>0.3096903096903097</v>
       </c>
       <c r="F194" t="n">
-        <v>11.515625</v>
+        <v>21.828125</v>
       </c>
     </row>
     <row r="195">
@@ -4712,13 +4712,13 @@
         <v>25</v>
       </c>
       <c r="D195" t="n">
-        <v>0.6983016983016983</v>
+        <v>0.7152847152847153</v>
       </c>
       <c r="E195" t="n">
-        <v>0.3016983016983017</v>
+        <v>0.2847152847152847</v>
       </c>
       <c r="F195" t="n">
-        <v>11.34375</v>
+        <v>22.6875</v>
       </c>
     </row>
     <row r="196">
@@ -4734,13 +4734,13 @@
         <v>25</v>
       </c>
       <c r="D196" t="n">
-        <v>0.6683316683316683</v>
+        <v>0.7332667332667333</v>
       </c>
       <c r="E196" t="n">
-        <v>0.3316683316683317</v>
+        <v>0.2667332667332667</v>
       </c>
       <c r="F196" t="n">
-        <v>11.359375</v>
+        <v>22.265625</v>
       </c>
     </row>
     <row r="197">
@@ -4756,13 +4756,13 @@
         <v>25</v>
       </c>
       <c r="D197" t="n">
-        <v>0.6993006993006993</v>
+        <v>0.7052947052947053</v>
       </c>
       <c r="E197" t="n">
-        <v>0.3006993006993007</v>
+        <v>0.2947052947052947</v>
       </c>
       <c r="F197" t="n">
-        <v>11.34375</v>
+        <v>22.671875</v>
       </c>
     </row>
     <row r="198">
@@ -4778,13 +4778,13 @@
         <v>25</v>
       </c>
       <c r="D198" t="n">
-        <v>0.6853146853146853</v>
+        <v>0.7442557442557443</v>
       </c>
       <c r="E198" t="n">
-        <v>0.3146853146853147</v>
+        <v>0.2557442557442557</v>
       </c>
       <c r="F198" t="n">
-        <v>10.71875</v>
+        <v>22.21875</v>
       </c>
     </row>
     <row r="199">
@@ -4800,13 +4800,13 @@
         <v>25</v>
       </c>
       <c r="D199" t="n">
-        <v>0.7012987012987013</v>
+        <v>0.6553446553446554</v>
       </c>
       <c r="E199" t="n">
-        <v>0.2987012987012987</v>
+        <v>0.3446553446553446</v>
       </c>
       <c r="F199" t="n">
-        <v>10.203125</v>
+        <v>22.125</v>
       </c>
     </row>
     <row r="200">
@@ -4822,13 +4822,13 @@
         <v>25</v>
       </c>
       <c r="D200" t="n">
-        <v>0.6953046953046953</v>
+        <v>0.7182817182817183</v>
       </c>
       <c r="E200" t="n">
-        <v>0.3046953046953047</v>
+        <v>0.2817182817182817</v>
       </c>
       <c r="F200" t="n">
-        <v>10.1875</v>
+        <v>22.609375</v>
       </c>
     </row>
     <row r="201">
@@ -4844,13 +4844,13 @@
         <v>25</v>
       </c>
       <c r="D201" t="n">
-        <v>0.7122877122877123</v>
+        <v>0.6933066933066933</v>
       </c>
       <c r="E201" t="n">
-        <v>0.2877122877122877</v>
+        <v>0.3066933066933067</v>
       </c>
       <c r="F201" t="n">
-        <v>10.359375</v>
+        <v>21.921875</v>
       </c>
     </row>
     <row r="202">
@@ -4866,13 +4866,13 @@
         <v>25</v>
       </c>
       <c r="D202" t="n">
-        <v>0.7152847152847153</v>
+        <v>0.7022977022977023</v>
       </c>
       <c r="E202" t="n">
-        <v>0.2847152847152847</v>
+        <v>0.2977022977022977</v>
       </c>
       <c r="F202" t="n">
-        <v>12</v>
+        <v>23.9375</v>
       </c>
     </row>
     <row r="203">
@@ -4888,13 +4888,13 @@
         <v>25</v>
       </c>
       <c r="D203" t="n">
-        <v>0.7122877122877123</v>
+        <v>0.7092907092907093</v>
       </c>
       <c r="E203" t="n">
-        <v>0.2877122877122877</v>
+        <v>0.2907092907092907</v>
       </c>
       <c r="F203" t="n">
-        <v>11.765625</v>
+        <v>23.75</v>
       </c>
     </row>
     <row r="204">
@@ -4910,13 +4910,13 @@
         <v>25</v>
       </c>
       <c r="D204" t="n">
-        <v>0.7052947052947053</v>
+        <v>0.7332667332667333</v>
       </c>
       <c r="E204" t="n">
-        <v>0.2947052947052947</v>
+        <v>0.2667332667332667</v>
       </c>
       <c r="F204" t="n">
-        <v>11.9375</v>
+        <v>23.6875</v>
       </c>
     </row>
     <row r="205">
@@ -4932,13 +4932,13 @@
         <v>25</v>
       </c>
       <c r="D205" t="n">
-        <v>0.7372627372627373</v>
+        <v>0.7072927072927073</v>
       </c>
       <c r="E205" t="n">
-        <v>0.2627372627372627</v>
+        <v>0.2927072927072927</v>
       </c>
       <c r="F205" t="n">
-        <v>11.96875</v>
+        <v>23.515625</v>
       </c>
     </row>
     <row r="206">
@@ -4954,13 +4954,13 @@
         <v>25</v>
       </c>
       <c r="D206" t="n">
-        <v>0.7172827172827173</v>
+        <v>0.7322677322677322</v>
       </c>
       <c r="E206" t="n">
-        <v>0.2827172827172827</v>
+        <v>0.2677322677322677</v>
       </c>
       <c r="F206" t="n">
-        <v>11.796875</v>
+        <v>23.484375</v>
       </c>
     </row>
     <row r="207">
@@ -4976,13 +4976,13 @@
         <v>25</v>
       </c>
       <c r="D207" t="n">
-        <v>0.7222777222777222</v>
+        <v>0.7112887112887113</v>
       </c>
       <c r="E207" t="n">
-        <v>0.2777222777222777</v>
+        <v>0.2887112887112887</v>
       </c>
       <c r="F207" t="n">
-        <v>12.21875</v>
+        <v>23.140625</v>
       </c>
     </row>
     <row r="208">
@@ -4998,13 +4998,13 @@
         <v>25</v>
       </c>
       <c r="D208" t="n">
-        <v>0.6993006993006993</v>
+        <v>0.7302697302697303</v>
       </c>
       <c r="E208" t="n">
-        <v>0.3006993006993007</v>
+        <v>0.2697302697302698</v>
       </c>
       <c r="F208" t="n">
-        <v>12.34375</v>
+        <v>23.21875</v>
       </c>
     </row>
     <row r="209">
@@ -5020,13 +5020,13 @@
         <v>25</v>
       </c>
       <c r="D209" t="n">
-        <v>0.6993006993006993</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="E209" t="n">
-        <v>0.3006993006993007</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="F209" t="n">
-        <v>12.09375</v>
+        <v>23.78125</v>
       </c>
     </row>
     <row r="210">
@@ -5042,13 +5042,13 @@
         <v>25</v>
       </c>
       <c r="D210" t="n">
-        <v>0.7012987012987013</v>
+        <v>0.7282717282717283</v>
       </c>
       <c r="E210" t="n">
-        <v>0.2987012987012987</v>
+        <v>0.2717282717282717</v>
       </c>
       <c r="F210" t="n">
-        <v>11.796875</v>
+        <v>23.234375</v>
       </c>
     </row>
     <row r="211">
@@ -5064,13 +5064,13 @@
         <v>25</v>
       </c>
       <c r="D211" t="n">
-        <v>0.7322677322677322</v>
+        <v>0.7102897102897103</v>
       </c>
       <c r="E211" t="n">
-        <v>0.2677322677322677</v>
+        <v>0.2897102897102897</v>
       </c>
       <c r="F211" t="n">
-        <v>12.015625</v>
+        <v>23.296875</v>
       </c>
     </row>
     <row r="212">
@@ -5086,13 +5086,13 @@
         <v>25</v>
       </c>
       <c r="D212" t="n">
-        <v>0.7192807192807192</v>
+        <v>0.7392607392607392</v>
       </c>
       <c r="E212" t="n">
-        <v>0.2807192807192807</v>
+        <v>0.2607392607392607</v>
       </c>
       <c r="F212" t="n">
-        <v>11.96875</v>
+        <v>23.625</v>
       </c>
     </row>
     <row r="213">
@@ -5108,13 +5108,13 @@
         <v>25</v>
       </c>
       <c r="D213" t="n">
-        <v>0.7282717282717283</v>
+        <v>0.7032967032967034</v>
       </c>
       <c r="E213" t="n">
-        <v>0.2717282717282717</v>
+        <v>0.2967032967032967</v>
       </c>
       <c r="F213" t="n">
-        <v>11.96875</v>
+        <v>23.890625</v>
       </c>
     </row>
     <row r="214">
@@ -5130,13 +5130,13 @@
         <v>25</v>
       </c>
       <c r="D214" t="n">
-        <v>0.6763236763236763</v>
+        <v>0.7192807192807192</v>
       </c>
       <c r="E214" t="n">
-        <v>0.3236763236763237</v>
+        <v>0.2807192807192807</v>
       </c>
       <c r="F214" t="n">
-        <v>11.90625</v>
+        <v>23.078125</v>
       </c>
     </row>
     <row r="215">
@@ -5152,13 +5152,13 @@
         <v>25</v>
       </c>
       <c r="D215" t="n">
-        <v>0.7282717282717283</v>
+        <v>0.7232767232767233</v>
       </c>
       <c r="E215" t="n">
-        <v>0.2717282717282717</v>
+        <v>0.2767232767232767</v>
       </c>
       <c r="F215" t="n">
-        <v>12.234375</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="216">
@@ -5174,13 +5174,13 @@
         <v>25</v>
       </c>
       <c r="D216" t="n">
-        <v>0.7062937062937062</v>
+        <v>0.7372627372627373</v>
       </c>
       <c r="E216" t="n">
-        <v>0.2937062937062937</v>
+        <v>0.2627372627372627</v>
       </c>
       <c r="F216" t="n">
-        <v>11.59375</v>
+        <v>23.359375</v>
       </c>
     </row>
     <row r="217">
@@ -5196,13 +5196,13 @@
         <v>25</v>
       </c>
       <c r="D217" t="n">
-        <v>0.6763236763236763</v>
+        <v>0.7202797202797203</v>
       </c>
       <c r="E217" t="n">
-        <v>0.3236763236763237</v>
+        <v>0.2797202797202797</v>
       </c>
       <c r="F217" t="n">
-        <v>12.015625</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="218">
@@ -5218,13 +5218,13 @@
         <v>25</v>
       </c>
       <c r="D218" t="n">
-        <v>0.7072927072927073</v>
+        <v>0.7092907092907093</v>
       </c>
       <c r="E218" t="n">
-        <v>0.2927072927072927</v>
+        <v>0.2907092907092907</v>
       </c>
       <c r="F218" t="n">
-        <v>12.171875</v>
+        <v>23.71875</v>
       </c>
     </row>
     <row r="219">
@@ -5240,13 +5240,13 @@
         <v>25</v>
       </c>
       <c r="D219" t="n">
-        <v>0.7212787212787213</v>
+        <v>0.7192807192807192</v>
       </c>
       <c r="E219" t="n">
-        <v>0.2787212787212787</v>
+        <v>0.2807192807192807</v>
       </c>
       <c r="F219" t="n">
-        <v>11.984375</v>
+        <v>23.21875</v>
       </c>
     </row>
     <row r="220">
@@ -5262,13 +5262,13 @@
         <v>25</v>
       </c>
       <c r="D220" t="n">
-        <v>0.7012987012987013</v>
+        <v>0.7122877122877123</v>
       </c>
       <c r="E220" t="n">
-        <v>0.2987012987012987</v>
+        <v>0.2877122877122877</v>
       </c>
       <c r="F220" t="n">
-        <v>11.953125</v>
+        <v>23.28125</v>
       </c>
     </row>
     <row r="221">
@@ -5284,13 +5284,13 @@
         <v>25</v>
       </c>
       <c r="D221" t="n">
-        <v>0.7252747252747253</v>
+        <v>0.7242757242757243</v>
       </c>
       <c r="E221" t="n">
-        <v>0.2747252747252747</v>
+        <v>0.2757242757242757</v>
       </c>
       <c r="F221" t="n">
-        <v>12.171875</v>
+        <v>23.421875</v>
       </c>
     </row>
     <row r="222">
@@ -5306,13 +5306,13 @@
         <v>25</v>
       </c>
       <c r="D222" t="n">
-        <v>0.7192807192807192</v>
+        <v>0.7162837162837162</v>
       </c>
       <c r="E222" t="n">
-        <v>0.2807192807192807</v>
+        <v>0.2837162837162837</v>
       </c>
       <c r="F222" t="n">
-        <v>11.625</v>
+        <v>23.828125</v>
       </c>
     </row>
     <row r="223">
@@ -5328,13 +5328,13 @@
         <v>25</v>
       </c>
       <c r="D223" t="n">
-        <v>0.7192807192807192</v>
+        <v>0.7442557442557443</v>
       </c>
       <c r="E223" t="n">
-        <v>0.2807192807192807</v>
+        <v>0.2557442557442557</v>
       </c>
       <c r="F223" t="n">
-        <v>11.625</v>
+        <v>23.390625</v>
       </c>
     </row>
     <row r="224">
@@ -5350,13 +5350,13 @@
         <v>25</v>
       </c>
       <c r="D224" t="n">
-        <v>0.7262737262737263</v>
+        <v>0.7202797202797203</v>
       </c>
       <c r="E224" t="n">
-        <v>0.2737262737262737</v>
+        <v>0.2797202797202797</v>
       </c>
       <c r="F224" t="n">
-        <v>11.546875</v>
+        <v>23.484375</v>
       </c>
     </row>
     <row r="225">
@@ -5372,13 +5372,13 @@
         <v>25</v>
       </c>
       <c r="D225" t="n">
-        <v>0.7042957042957043</v>
+        <v>0.7182817182817183</v>
       </c>
       <c r="E225" t="n">
-        <v>0.2957042957042957</v>
+        <v>0.2817182817182817</v>
       </c>
       <c r="F225" t="n">
-        <v>11.421875</v>
+        <v>23.1875</v>
       </c>
     </row>
     <row r="226">
@@ -5394,13 +5394,13 @@
         <v>25</v>
       </c>
       <c r="D226" t="n">
-        <v>0.7092907092907093</v>
+        <v>0.7022977022977023</v>
       </c>
       <c r="E226" t="n">
-        <v>0.2907092907092907</v>
+        <v>0.2977022977022977</v>
       </c>
       <c r="F226" t="n">
-        <v>11.4375</v>
+        <v>23.328125</v>
       </c>
     </row>
     <row r="227">
@@ -5416,13 +5416,13 @@
         <v>25</v>
       </c>
       <c r="D227" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="E227" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="F227" t="n">
-        <v>12.75</v>
+        <v>25.28125</v>
       </c>
     </row>
     <row r="228">
@@ -5438,13 +5438,13 @@
         <v>25</v>
       </c>
       <c r="D228" t="n">
-        <v>0.7282717282717283</v>
+        <v>0.6853146853146853</v>
       </c>
       <c r="E228" t="n">
-        <v>0.2717282717282717</v>
+        <v>0.3146853146853147</v>
       </c>
       <c r="F228" t="n">
-        <v>12.734375</v>
+        <v>24.421875</v>
       </c>
     </row>
     <row r="229">
@@ -5460,13 +5460,13 @@
         <v>25</v>
       </c>
       <c r="D229" t="n">
-        <v>0.7122877122877123</v>
+        <v>0.6803196803196803</v>
       </c>
       <c r="E229" t="n">
-        <v>0.2877122877122877</v>
+        <v>0.3196803196803197</v>
       </c>
       <c r="F229" t="n">
-        <v>12.625</v>
+        <v>24.703125</v>
       </c>
     </row>
     <row r="230">
@@ -5482,13 +5482,13 @@
         <v>25</v>
       </c>
       <c r="D230" t="n">
-        <v>0.6833166833166833</v>
+        <v>0.6713286713286714</v>
       </c>
       <c r="E230" t="n">
-        <v>0.3166833166833167</v>
+        <v>0.3286713286713286</v>
       </c>
       <c r="F230" t="n">
-        <v>12.578125</v>
+        <v>24.78125</v>
       </c>
     </row>
     <row r="231">
@@ -5504,13 +5504,13 @@
         <v>25</v>
       </c>
       <c r="D231" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.7162837162837162</v>
       </c>
       <c r="E231" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.2837162837162837</v>
       </c>
       <c r="F231" t="n">
-        <v>12.53125</v>
+        <v>24.625</v>
       </c>
     </row>
     <row r="232">
@@ -5526,13 +5526,13 @@
         <v>25</v>
       </c>
       <c r="D232" t="n">
-        <v>0.7032967032967034</v>
+        <v>0.7102897102897103</v>
       </c>
       <c r="E232" t="n">
-        <v>0.2967032967032967</v>
+        <v>0.2897102897102897</v>
       </c>
       <c r="F232" t="n">
-        <v>12.65625</v>
+        <v>24.765625</v>
       </c>
     </row>
     <row r="233">
@@ -5548,13 +5548,13 @@
         <v>25</v>
       </c>
       <c r="D233" t="n">
-        <v>0.7072927072927073</v>
+        <v>0.6853146853146853</v>
       </c>
       <c r="E233" t="n">
-        <v>0.2927072927072927</v>
+        <v>0.3146853146853147</v>
       </c>
       <c r="F233" t="n">
-        <v>12.59375</v>
+        <v>24.25</v>
       </c>
     </row>
     <row r="234">
@@ -5570,13 +5570,13 @@
         <v>25</v>
       </c>
       <c r="D234" t="n">
-        <v>0.6803196803196803</v>
+        <v>0.6973026973026973</v>
       </c>
       <c r="E234" t="n">
-        <v>0.3196803196803197</v>
+        <v>0.3026973026973027</v>
       </c>
       <c r="F234" t="n">
-        <v>12.53125</v>
+        <v>24.359375</v>
       </c>
     </row>
     <row r="235">
@@ -5592,13 +5592,13 @@
         <v>25</v>
       </c>
       <c r="D235" t="n">
-        <v>0.7102897102897103</v>
+        <v>0.6983016983016983</v>
       </c>
       <c r="E235" t="n">
-        <v>0.2897102897102897</v>
+        <v>0.3016983016983017</v>
       </c>
       <c r="F235" t="n">
-        <v>12.453125</v>
+        <v>24.25</v>
       </c>
     </row>
     <row r="236">
@@ -5614,13 +5614,13 @@
         <v>25</v>
       </c>
       <c r="D236" t="n">
-        <v>0.6773226773226774</v>
+        <v>0.6983016983016983</v>
       </c>
       <c r="E236" t="n">
-        <v>0.3226773226773227</v>
+        <v>0.3016983016983017</v>
       </c>
       <c r="F236" t="n">
-        <v>12.65625</v>
+        <v>24.640625</v>
       </c>
     </row>
     <row r="237">
@@ -5636,13 +5636,13 @@
         <v>25</v>
       </c>
       <c r="D237" t="n">
-        <v>0.7072927072927073</v>
+        <v>0.6833166833166833</v>
       </c>
       <c r="E237" t="n">
-        <v>0.2927072927072927</v>
+        <v>0.3166833166833167</v>
       </c>
       <c r="F237" t="n">
-        <v>12.640625</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="238">
@@ -5658,13 +5658,13 @@
         <v>25</v>
       </c>
       <c r="D238" t="n">
-        <v>0.6953046953046953</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="E238" t="n">
-        <v>0.3046953046953047</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="F238" t="n">
-        <v>12.453125</v>
+        <v>25.296875</v>
       </c>
     </row>
     <row r="239">
@@ -5680,13 +5680,13 @@
         <v>25</v>
       </c>
       <c r="D239" t="n">
-        <v>0.6853146853146853</v>
+        <v>0.7072927072927073</v>
       </c>
       <c r="E239" t="n">
-        <v>0.3146853146853147</v>
+        <v>0.2927072927072927</v>
       </c>
       <c r="F239" t="n">
-        <v>13.09375</v>
+        <v>25.078125</v>
       </c>
     </row>
     <row r="240">
@@ -5702,13 +5702,13 @@
         <v>25</v>
       </c>
       <c r="D240" t="n">
-        <v>0.7022977022977023</v>
+        <v>0.6963036963036963</v>
       </c>
       <c r="E240" t="n">
-        <v>0.2977022977022977</v>
+        <v>0.3036963036963037</v>
       </c>
       <c r="F240" t="n">
-        <v>12.71875</v>
+        <v>24.609375</v>
       </c>
     </row>
     <row r="241">
@@ -5724,13 +5724,13 @@
         <v>25</v>
       </c>
       <c r="D241" t="n">
-        <v>0.7112887112887113</v>
+        <v>0.6863136863136863</v>
       </c>
       <c r="E241" t="n">
-        <v>0.2887112887112887</v>
+        <v>0.3136863136863137</v>
       </c>
       <c r="F241" t="n">
-        <v>12.65625</v>
+        <v>24.90625</v>
       </c>
     </row>
     <row r="242">
@@ -5746,13 +5746,13 @@
         <v>25</v>
       </c>
       <c r="D242" t="n">
-        <v>0.6583416583416584</v>
+        <v>0.7182817182817183</v>
       </c>
       <c r="E242" t="n">
-        <v>0.3416583416583416</v>
+        <v>0.2817182817182817</v>
       </c>
       <c r="F242" t="n">
-        <v>12.6875</v>
+        <v>24.421875</v>
       </c>
     </row>
     <row r="243">
@@ -5768,13 +5768,13 @@
         <v>25</v>
       </c>
       <c r="D243" t="n">
-        <v>0.6713286713286714</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="E243" t="n">
-        <v>0.3286713286713286</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="F243" t="n">
-        <v>12.453125</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="244">
@@ -5790,13 +5790,13 @@
         <v>25</v>
       </c>
       <c r="D244" t="n">
-        <v>0.6893106893106893</v>
+        <v>0.6953046953046953</v>
       </c>
       <c r="E244" t="n">
-        <v>0.3106893106893107</v>
+        <v>0.3046953046953047</v>
       </c>
       <c r="F244" t="n">
-        <v>12.796875</v>
+        <v>24.40625</v>
       </c>
     </row>
     <row r="245">
@@ -5812,13 +5812,13 @@
         <v>25</v>
       </c>
       <c r="D245" t="n">
-        <v>0.6913086913086913</v>
+        <v>0.6953046953046953</v>
       </c>
       <c r="E245" t="n">
-        <v>0.3086913086913087</v>
+        <v>0.3046953046953047</v>
       </c>
       <c r="F245" t="n">
-        <v>12.421875</v>
+        <v>24.9375</v>
       </c>
     </row>
     <row r="246">
@@ -5834,13 +5834,13 @@
         <v>25</v>
       </c>
       <c r="D246" t="n">
-        <v>0.7052947052947053</v>
+        <v>0.7002997002997003</v>
       </c>
       <c r="E246" t="n">
-        <v>0.2947052947052947</v>
+        <v>0.2997002997002997</v>
       </c>
       <c r="F246" t="n">
-        <v>12.640625</v>
+        <v>24.328125</v>
       </c>
     </row>
     <row r="247">
@@ -5856,13 +5856,13 @@
         <v>25</v>
       </c>
       <c r="D247" t="n">
-        <v>0.7242757242757243</v>
+        <v>0.7212787212787213</v>
       </c>
       <c r="E247" t="n">
-        <v>0.2757242757242757</v>
+        <v>0.2787212787212787</v>
       </c>
       <c r="F247" t="n">
-        <v>12.453125</v>
+        <v>24.796875</v>
       </c>
     </row>
     <row r="248">
@@ -5878,13 +5878,13 @@
         <v>25</v>
       </c>
       <c r="D248" t="n">
-        <v>0.6793206793206793</v>
+        <v>0.7072927072927073</v>
       </c>
       <c r="E248" t="n">
-        <v>0.3206793206793207</v>
+        <v>0.2927072927072927</v>
       </c>
       <c r="F248" t="n">
-        <v>12.125</v>
+        <v>24.53125</v>
       </c>
     </row>
     <row r="249">
@@ -5900,13 +5900,13 @@
         <v>25</v>
       </c>
       <c r="D249" t="n">
-        <v>0.6783216783216783</v>
+        <v>0.6613386613386614</v>
       </c>
       <c r="E249" t="n">
-        <v>0.3216783216783217</v>
+        <v>0.3386613386613387</v>
       </c>
       <c r="F249" t="n">
-        <v>11.921875</v>
+        <v>24.0625</v>
       </c>
     </row>
     <row r="250">
@@ -5922,13 +5922,13 @@
         <v>25</v>
       </c>
       <c r="D250" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6633366633366633</v>
       </c>
       <c r="E250" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3366633366633366</v>
       </c>
       <c r="F250" t="n">
-        <v>11.8125</v>
+        <v>24.140625</v>
       </c>
     </row>
     <row r="251">
@@ -5944,13 +5944,13 @@
         <v>25</v>
       </c>
       <c r="D251" t="n">
-        <v>0.7102897102897103</v>
+        <v>0.7152847152847153</v>
       </c>
       <c r="E251" t="n">
-        <v>0.2897102897102897</v>
+        <v>0.2847152847152847</v>
       </c>
       <c r="F251" t="n">
-        <v>11.46875</v>
+        <v>23.75</v>
       </c>
     </row>
   </sheetData>
